--- a/pics/ViT_is_best.xlsx
+++ b/pics/ViT_is_best.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dreamer-Programming\ViT\timm\pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3544B-C5FE-429D-8375-4B5037C2041E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA959750-6291-4A87-97AB-0A59CA7D54ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="21820" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>ViT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CNN1D</t>
+    <t>ViT_Freq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ViT_time</t>
+    <t>Vit_Freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViT_Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,6 +56,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,12 +114,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -206,799 +218,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="11"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Time Domain ViT</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$1:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.4905424000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2048770000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76934599999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71565079999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.73523559999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74682459999999984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67733500000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62236500000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.58751259999999994</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59317120000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.60736620000000008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.61158179999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.50068760000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.54829660000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.57583080000000009</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.48638500000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.45502020000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.46010239999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.49886059999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.50596360000000007</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.38242379999999992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.39796039999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.38105359999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.38141159999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.40314700000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.39830300000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.36777159999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32915620000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.36372859999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.36055179999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000038-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.372101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1854340000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74816199999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.650424</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84734799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84887900000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.78286800000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61366299999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73019100000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.63183500000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56424200000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.64238300000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.51393200000000006</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50446500000000005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54889900000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.55419399999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.60552600000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.53777600000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.49720700000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.550203</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.46900500000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.47808600000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.44532300000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.425674</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.493168</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.45903100000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.41938300000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.35259400000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.39687099999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.46983999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.504445</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1939649999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78233299999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78371199999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70914299999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.72212799999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.629247</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.61728099999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47948400000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.63939800000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.72212799999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.629247</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.61728099999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.47948400000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63939800000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.46204099999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.42124200000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.51656500000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.52321300000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.64113600000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.43541800000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.41656300000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.42959799999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.32409100000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.44800699999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.43953900000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.26998899999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.21179700000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26873900000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.25598599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.434714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.125796</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74311099999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63488199999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62410299999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91043799999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74809199999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.71514500000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60893699999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54792799999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.60659200000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66824799999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.495612</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.54180600000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.69077299999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50370199999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.38962200000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.35001599999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.45175199999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.42796200000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29469499999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.403229</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.27931499999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.31929999999999997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.27152300000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.30276399999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27456399999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.38407200000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.397816</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.34488200000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$1:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.51475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3052569999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77045300000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.769926</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.85325399999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.66680899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60929</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.635347</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.49508600000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.551423</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52035600000000004</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.60400799999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.39105600000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.57583799999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.53201299999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.51966199999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.52261000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.462675</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.53351499999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.581654</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36839699999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.38714199999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.38827299999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.52278999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.45493299999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.50516300000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.59592000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.41732900000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.40756599999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.44834099999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$1:$E$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>1.6267020000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2139329999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80267100000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73931000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.64232999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58586899999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.617178</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.530389</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.623865</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.59527200000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62351299999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51402300000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.48555700000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.63988999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.46807100000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.39232600000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.33610099999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.43347999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.48861599999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.32886300000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.34460400000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.304782</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.362759</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.31520300000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.34810400000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.28501799999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27900199999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27998899999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.34765099999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.28371000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="6"/>
           <c:tx>
             <c:v>Hybrid ViT</c:v>
           </c:tx>
@@ -1134,7 +355,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="7"/>
+          <c:order val="1"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1265,7 +486,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="8"/>
+          <c:order val="2"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1396,7 +617,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="9"/>
+          <c:order val="3"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1527,7 +748,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="10"/>
+          <c:order val="4"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1658,7 +879,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="11"/>
+          <c:order val="5"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -1784,6 +1005,1588 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000003D-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Frequent Domain ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$1:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5489519999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3773013999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0237892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4260524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15189620000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12141399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6091399999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1521599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.37814E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0079399999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0037400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5192800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0613400000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.30216E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5579999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.04478E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0062400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9737999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4872000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.19586E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2985999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3731599999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0706000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.4606000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.2117600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3563999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6786000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.8796000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.5194000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.0026000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000038-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.750372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.366868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35144900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.104188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2081000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.6550999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4104999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7688999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9957999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2110000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2270000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9579999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2859999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6329999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.862E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7269999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.326E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9780000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.398E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4139999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6189999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3670000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6657999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.5009999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0850000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5460000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.580719</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4040239999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1074889999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55070799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26197500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.243642</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1297999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7899E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6524E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8327E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1199000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8903000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5385000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0462000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2367999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5049999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4463E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2009999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9989999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3475000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.8019999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8469999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.4779999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.545E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7520000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.835E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.3962410000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.376655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98753899999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33348100000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9646999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3970000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0591000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0700999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.9052E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4404999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3465E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3976000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0889999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.6479999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1075E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2478E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1533E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.8227999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8787999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6041000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5202E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0517E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.163E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9120000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.235E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1289999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4729999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.214E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.0800000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.4643679999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.367291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78875700000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25694699999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14643999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.165385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2623000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5924000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.134711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0444E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3837000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.7442000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8730000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.7075999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8560000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1049999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3017000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.0740000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9860000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.163E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.9668999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8580000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3169999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3516E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.101E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.4469999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0240000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.848E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8989999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$1:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.5530600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.371669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.215171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63767700000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19723099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.101992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8601999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5579999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9556E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0659999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3470000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7297E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9750000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0041E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1110000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6550000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3949999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1979999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.2869999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.7586999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5829999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7960000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.9049999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3319999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9490000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3230000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.9580000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.653E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9EC-4610-97B7-7DAC2EAFEEEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Time Domain ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AF$1:$AF$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.4905424000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2048770000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76934599999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71565079999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73523559999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74682459999999984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67733500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62236500000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58751259999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59317120000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60736620000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.61158179999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50068760000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54829660000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57583080000000009</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48638500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.45502020000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46010239999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49886059999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.50596360000000007</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38242379999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39796039999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38105359999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38141159999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.40314700000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.39830300000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36777159999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32915620000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36372859999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36055179999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E628-4147-B2C7-02EAB5018652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AA$1:$AA$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.372101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1854340000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74816199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.650424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84734799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84887900000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78286800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61366299999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73019100000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63183500000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.56424200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.64238300000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.51393200000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50446500000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54889900000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.55419399999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60552600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53777600000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49720700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.550203</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.46900500000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47808600000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.44532300000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.425674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.493168</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45903100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.41938300000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.35259400000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.39687099999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46983999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E628-4147-B2C7-02EAB5018652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$1:$AB$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.504445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1939649999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78233299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78371199999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70914299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72212799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.629247</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61728099999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47948400000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63939800000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72212799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.629247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61728099999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47948400000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63939800000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46204099999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42124200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51656500000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52321300000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.64113600000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.43541800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41656300000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42959799999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32409100000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44800699999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.43953900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26998899999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.21179700000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.26873900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.25598599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E628-4147-B2C7-02EAB5018652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AC$1:$AC$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.434714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.125796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74311099999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63488199999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62410299999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91043799999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.74809199999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71514500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60893699999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54792799999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.60659200000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66824799999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.495612</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54180600000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69077299999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50370199999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38962200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35001599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45175199999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42796200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.29469499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.403229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27931499999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.27152300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.30276399999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27456399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38407200000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.397816</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34488200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E628-4147-B2C7-02EAB5018652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AD$1:$AD$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.51475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3052569999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77045300000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.769926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85325399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66680899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60929</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.635347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49508600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.551423</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.52035600000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60400799999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.39105600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57583799999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53201299999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51966199999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.52261000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.462675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53351499999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.581654</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36839699999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38714199999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38827299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.52278999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45493299999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.50516300000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.59592000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.41732900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40756599999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.44834099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E628-4147-B2C7-02EAB5018652}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$1:$AE$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1.6267020000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2139329999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80267100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73931000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64232999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58586899999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.617178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.530389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.623865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59527200000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62351299999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51402300000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48555700000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63988999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46807100000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.39232600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33610099999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.43347999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.48861599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.32886300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.34460400000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.304782</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.362759</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31520300000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34810400000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.28501799999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27900199999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27998899999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34765099999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28371000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E628-4147-B2C7-02EAB5018652}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1973,14 +2776,34 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="14"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="15"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="16"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="17"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32961331941940997"/>
-          <c:y val="0.92081223404448131"/>
-          <c:w val="0.3067249786547766"/>
-          <c:h val="6.0633458664270667E-2"/>
+          <c:x val="0.16698212432108753"/>
+          <c:y val="0.93427713371313514"/>
+          <c:w val="0.72789698783333057"/>
+          <c:h val="4.5444319078433305E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2192,7 +3015,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000008-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2251,7 +3074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000000A-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2310,7 +3133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000000C-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,7 +3192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000000E-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2428,7 +3251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000010-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2487,7 +3310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000012-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2495,7 +3318,7 @@
           <c:idx val="11"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Time Domain ViT</c:v>
+            <c:v>Frequent Domain ViT</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2528,22 +3351,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60.1</c:v>
+                  <c:v>97.016599999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.059999999999988</c:v>
+                  <c:v>99.133400000000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.7</c:v>
+                  <c:v>99.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.16</c:v>
+                  <c:v>99.583400000000012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79.059999999999988</c:v>
+                  <c:v>99.633400000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.02000000000001</c:v>
+                  <c:v>99.683199999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,7 +3374,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000014-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2584,25 +3407,25 @@
             <c:numRef>
               <c:f>Sheet2!$H$1:$H$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>60.8</c:v>
+                  <c:v>98.082999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.9</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.599999999999994</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77.8</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.400000000000006</c:v>
+                  <c:v>99.832999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,7 +3433,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000016-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2643,22 +3466,22 @@
             <c:numRef>
               <c:f>Sheet2!$I$1:$I$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59.1</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.099999999999994</c:v>
+                  <c:v>98.917000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.5</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.7</c:v>
+                  <c:v>99.417000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.900000000000006</c:v>
+                  <c:v>99.332999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +3489,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{00000018-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2699,25 +3522,25 @@
             <c:numRef>
               <c:f>Sheet2!$J$1:$J$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>58.1</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.2</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75.2</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.7</c:v>
+                  <c:v>99.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.1</c:v>
+                  <c:v>99.917000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.2</c:v>
+                  <c:v>99.832999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,7 +3548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000001A-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2758,25 +3581,25 @@
             <c:numRef>
               <c:f>Sheet2!$K$1:$K$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59.3</c:v>
+                  <c:v>96.667000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.7</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.5</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.2</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>99.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>73.7</c:v>
+                  <c:v>99.332999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,7 +3607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000001C-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2817,25 +3640,25 @@
             <c:numRef>
               <c:f>Sheet2!$L$1:$L$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>63.2</c:v>
+                  <c:v>97.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>83.4</c:v>
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00_ ">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00_ ">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,7 +3666,366 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-9D15-43E1-903D-87516E0C4F1A}"/>
+              <c16:uniqueId val="{0000001E-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Time Domain ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$1:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.059999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.059999999999988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$1:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$1:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$1:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$1:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-867C-4EE3-AB78-E49F8CCE01D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$1:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-867C-4EE3-AB78-E49F8CCE01D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2921,13 +4103,14 @@
         <c:crossAx val="1025609231"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1025609231"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="101"/>
-          <c:min val="55"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3036,6 +4219,26 @@
         <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="14"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="15"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="16"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="17"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3067,14 +4270,1298 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13723909784799876"/>
+          <c:y val="5.185185185185185E-2"/>
+          <c:w val="0.82652457830079773"/>
+          <c:h val="0.81334616506270052"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Hybrid ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$1:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.49799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.884200000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.916800000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.965999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.866</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.933400000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>99.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$1:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Frequent Domain ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$1:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>97.016599999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.133400000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.583400000000012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.633400000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.683199999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$1:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.832999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$1:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>94.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.332999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$J$1:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.832999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="10"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$1:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>96.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.332999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="11"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$1:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>97.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00_ ">
+                  <c:v>99.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00_ ">
+                  <c:v>99.75</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00_ ">
+                  <c:v>99.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00_ ">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>Time Domain ViT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$1:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.059999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.059999999999988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.02000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$1:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$1:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$1:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$1:$R$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$S$1:$S$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>63.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-7AD5-4555-8426-FB2BABC1CD5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1025612559"/>
+        <c:axId val="1025609231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1025612559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025609231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1025609231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100.2"/>
+          <c:min val="93"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1025612559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3150,6 +5637,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4221,20 +6748,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>2886</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>599248</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>65634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>630876</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>35875</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>572035</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4267,15 +7310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>48186</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>157630</xdr:rowOff>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4295,6 +7338,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ABF1EBA-3B8E-47FD-95D7-3396B5A6B7A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4566,33 +7647,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1.372101</v>
-      </c>
-      <c r="B1">
-        <v>1.504445</v>
-      </c>
-      <c r="C1">
-        <v>1.434714</v>
-      </c>
-      <c r="D1">
-        <v>1.51475</v>
-      </c>
-      <c r="E1">
-        <v>1.6267020000000001</v>
-      </c>
-      <c r="F1">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1.750372</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1.580719</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1.3962410000000001</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1.4643679999999999</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1.5530600000000001</v>
+      </c>
+      <c r="F1" s="1">
         <f>AVERAGE(A1:E1)</f>
-        <v>1.4905424000000003</v>
+        <v>1.5489519999999999</v>
       </c>
       <c r="H1" s="1">
         <v>77.099999999999994</v>
@@ -4643,26 +7724,45 @@
       <c r="Y1" s="4">
         <v>98.75</v>
       </c>
+      <c r="AA1">
+        <v>1.372101</v>
+      </c>
+      <c r="AB1">
+        <v>1.504445</v>
+      </c>
+      <c r="AC1">
+        <v>1.434714</v>
+      </c>
+      <c r="AD1">
+        <v>1.51475</v>
+      </c>
+      <c r="AE1">
+        <v>1.6267020000000001</v>
+      </c>
+      <c r="AF1">
+        <f>AVERAGE(AA1:AE1)</f>
+        <v>1.4905424000000003</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1.1854340000000001</v>
-      </c>
-      <c r="B2">
-        <v>1.1939649999999999</v>
-      </c>
-      <c r="C2">
-        <v>1.125796</v>
-      </c>
-      <c r="D2">
-        <v>1.3052569999999999</v>
-      </c>
-      <c r="E2">
-        <v>1.2139329999999999</v>
-      </c>
-      <c r="F2">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1.366868</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.4040239999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.376655</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.367291</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.371669</v>
+      </c>
+      <c r="F2" s="1">
         <f t="shared" ref="F2:F30" si="0">AVERAGE(A2:E2)</f>
-        <v>1.2048770000000002</v>
+        <v>1.3773013999999999</v>
       </c>
       <c r="H2" s="1">
         <v>72.7</v>
@@ -4698,26 +7798,45 @@
         <f t="shared" ref="S2:S30" si="1">AVERAGE(N2:R2)</f>
         <v>1.3771222000000001</v>
       </c>
+      <c r="AA2">
+        <v>1.1854340000000001</v>
+      </c>
+      <c r="AB2">
+        <v>1.1939649999999999</v>
+      </c>
+      <c r="AC2">
+        <v>1.125796</v>
+      </c>
+      <c r="AD2">
+        <v>1.3052569999999999</v>
+      </c>
+      <c r="AE2">
+        <v>1.2139329999999999</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF30" si="2">AVERAGE(AA2:AE2)</f>
+        <v>1.2048770000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.74816199999999999</v>
-      </c>
-      <c r="B3">
-        <v>0.78233299999999995</v>
-      </c>
-      <c r="C3">
-        <v>0.74311099999999997</v>
-      </c>
-      <c r="D3">
-        <v>0.77045300000000005</v>
-      </c>
-      <c r="E3">
-        <v>0.80267100000000002</v>
-      </c>
-      <c r="F3">
+    <row r="3" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.01999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.1074889999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.98753899999999994</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.78875700000000004</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.215171</v>
+      </c>
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
-        <v>0.76934599999999997</v>
+        <v>1.0237892</v>
       </c>
       <c r="N3" s="1">
         <v>0.94217899999999999</v>
@@ -4738,26 +7857,45 @@
         <f t="shared" si="1"/>
         <v>1.1072152000000002</v>
       </c>
+      <c r="AA3">
+        <v>0.74816199999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.78233299999999995</v>
+      </c>
+      <c r="AC3">
+        <v>0.74311099999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.77045300000000005</v>
+      </c>
+      <c r="AE3">
+        <v>0.80267100000000002</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>0.76934599999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.650424</v>
-      </c>
-      <c r="B4">
-        <v>0.78371199999999996</v>
-      </c>
-      <c r="C4">
-        <v>0.63488199999999995</v>
-      </c>
-      <c r="D4">
-        <v>0.769926</v>
-      </c>
-      <c r="E4">
-        <v>0.73931000000000002</v>
-      </c>
-      <c r="F4">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.35144900000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.55070799999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.33348100000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.25694699999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.63767700000000005</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.71565079999999992</v>
+        <v>0.4260524</v>
       </c>
       <c r="N4" s="1">
         <v>0.176732</v>
@@ -4778,26 +7916,45 @@
         <f t="shared" si="1"/>
         <v>0.40557199999999999</v>
       </c>
+      <c r="AA4">
+        <v>0.650424</v>
+      </c>
+      <c r="AB4">
+        <v>0.78371199999999996</v>
+      </c>
+      <c r="AC4">
+        <v>0.63488199999999995</v>
+      </c>
+      <c r="AD4">
+        <v>0.769926</v>
+      </c>
+      <c r="AE4">
+        <v>0.73931000000000002</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="2"/>
+        <v>0.71565079999999992</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>0.84734799999999999</v>
+        <v>0.104188</v>
       </c>
       <c r="B5" s="2">
-        <v>0.70914299999999997</v>
+        <v>0.26197500000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.62410299999999996</v>
+        <v>4.9646999999999997E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>0.85325399999999996</v>
+        <v>0.14643999999999999</v>
       </c>
       <c r="E5" s="2">
-        <v>0.64232999999999996</v>
-      </c>
-      <c r="F5">
+        <v>0.19723099999999999</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.73523559999999999</v>
+        <v>0.15189620000000001</v>
       </c>
       <c r="N5" s="2">
         <v>5.1549999999999999E-2</v>
@@ -4818,26 +7975,45 @@
         <f t="shared" si="1"/>
         <v>8.7329199999999996E-2</v>
       </c>
+      <c r="AA5" s="2">
+        <v>0.84734799999999999</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0.70914299999999997</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.62410299999999996</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0.85325399999999996</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0.64232999999999996</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="2"/>
+        <v>0.73523559999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.84887900000000005</v>
-      </c>
-      <c r="B6">
-        <v>0.72212799999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.91043799999999997</v>
-      </c>
-      <c r="D6">
-        <v>0.66680899999999999</v>
-      </c>
-      <c r="E6">
-        <v>0.58586899999999997</v>
-      </c>
-      <c r="F6">
+    <row r="6" spans="1:32" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5.2081000000000002E-2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.243642</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.3970000000000002E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.165385</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.101992</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>0.74682459999999984</v>
+        <v>0.12141399999999999</v>
       </c>
       <c r="H6" s="3">
         <v>98</v>
@@ -4888,26 +8064,45 @@
       <c r="Y6" s="3">
         <v>99.917000000000002</v>
       </c>
+      <c r="AA6">
+        <v>0.84887900000000005</v>
+      </c>
+      <c r="AB6">
+        <v>0.72212799999999999</v>
+      </c>
+      <c r="AC6">
+        <v>0.91043799999999997</v>
+      </c>
+      <c r="AD6">
+        <v>0.66680899999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.58586899999999997</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="2"/>
+        <v>0.74682459999999984</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.78286800000000001</v>
-      </c>
-      <c r="B7">
-        <v>0.629247</v>
-      </c>
-      <c r="C7">
-        <v>0.74809199999999998</v>
-      </c>
-      <c r="D7">
-        <v>0.60929</v>
-      </c>
-      <c r="E7">
-        <v>0.617178</v>
-      </c>
-      <c r="F7">
+    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>9.6550999999999998E-2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.12209</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0591000000000002E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.2623000000000001E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.8601999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>0.67733500000000002</v>
+        <v>6.6091399999999995E-2</v>
       </c>
       <c r="H7" s="1">
         <v>96.7</v>
@@ -4943,26 +8138,45 @@
         <f t="shared" si="1"/>
         <v>2.4782800000000001E-2</v>
       </c>
+      <c r="AA7">
+        <v>0.78286800000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.629247</v>
+      </c>
+      <c r="AC7">
+        <v>0.74809199999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.60929</v>
+      </c>
+      <c r="AE7">
+        <v>0.617178</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>0.67733500000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.61366299999999996</v>
-      </c>
-      <c r="B8">
-        <v>0.61728099999999997</v>
-      </c>
-      <c r="C8">
-        <v>0.71514500000000003</v>
-      </c>
-      <c r="D8">
-        <v>0.635347</v>
-      </c>
-      <c r="E8">
-        <v>0.530389</v>
-      </c>
-      <c r="F8">
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4.4104999999999998E-2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.1297999999999998E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.0700999999999998E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.5924000000000001E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.5579999999999999E-2</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>0.62236500000000006</v>
+        <v>4.1521599999999999E-2</v>
       </c>
       <c r="N8" s="1">
         <v>1.2196E-2</v>
@@ -4983,26 +8197,45 @@
         <f t="shared" si="1"/>
         <v>1.6777799999999999E-2</v>
       </c>
+      <c r="AA8">
+        <v>0.61366299999999996</v>
+      </c>
+      <c r="AB8">
+        <v>0.61728099999999997</v>
+      </c>
+      <c r="AC8">
+        <v>0.71514500000000003</v>
+      </c>
+      <c r="AD8">
+        <v>0.635347</v>
+      </c>
+      <c r="AE8">
+        <v>0.530389</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="2"/>
+        <v>0.62236500000000006</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.73019100000000003</v>
-      </c>
-      <c r="B9">
-        <v>0.47948400000000002</v>
-      </c>
-      <c r="C9">
-        <v>0.60893699999999995</v>
-      </c>
-      <c r="D9">
-        <v>0.49508600000000003</v>
-      </c>
-      <c r="E9">
-        <v>0.623865</v>
-      </c>
-      <c r="F9">
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2.7688999999999998E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.7899E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.9052E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.134711</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.9556E-2</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.58751259999999994</v>
+        <v>5.37814E-2</v>
       </c>
       <c r="N9" s="1">
         <v>1.0545000000000001E-2</v>
@@ -5023,26 +8256,45 @@
         <f t="shared" si="1"/>
         <v>1.3217200000000002E-2</v>
       </c>
+      <c r="AA9">
+        <v>0.73019100000000003</v>
+      </c>
+      <c r="AB9">
+        <v>0.47948400000000002</v>
+      </c>
+      <c r="AC9">
+        <v>0.60893699999999995</v>
+      </c>
+      <c r="AD9">
+        <v>0.49508600000000003</v>
+      </c>
+      <c r="AE9">
+        <v>0.623865</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="2"/>
+        <v>0.58751259999999994</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>0.63183500000000004</v>
-      </c>
-      <c r="B10">
-        <v>0.63939800000000002</v>
-      </c>
-      <c r="C10">
-        <v>0.54792799999999997</v>
-      </c>
-      <c r="D10">
-        <v>0.551423</v>
-      </c>
-      <c r="E10">
-        <v>0.59527200000000002</v>
-      </c>
-      <c r="F10">
+    <row r="10" spans="1:32" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>2.9957999999999999E-2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.6524E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.4404999999999998E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0444E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <v>9.0659999999999994E-3</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>0.59317120000000001</v>
+        <v>2.0079399999999997E-2</v>
       </c>
       <c r="N10" s="2">
         <v>1.0796999999999999E-2</v>
@@ -5063,26 +8315,45 @@
         <f t="shared" si="1"/>
         <v>1.3208199999999998E-2</v>
       </c>
+      <c r="AA10">
+        <v>0.63183500000000004</v>
+      </c>
+      <c r="AB10">
+        <v>0.63939800000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.54792799999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.551423</v>
+      </c>
+      <c r="AE10">
+        <v>0.59527200000000002</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="2"/>
+        <v>0.59317120000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>0.56424200000000002</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.72212799999999999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.60659200000000002</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.52035600000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.62351299999999998</v>
-      </c>
-      <c r="F11">
+    <row r="11" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7.2110000000000004E-3</v>
+      </c>
+      <c r="B11">
+        <v>1.8327E-2</v>
+      </c>
+      <c r="C11">
+        <v>1.3465E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.3837000000000003E-2</v>
+      </c>
+      <c r="E11">
+        <v>7.3470000000000002E-3</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>0.60736620000000008</v>
+        <v>2.0037400000000004E-2</v>
       </c>
       <c r="H11">
         <v>99.9</v>
@@ -5133,26 +8404,45 @@
       <c r="Y11">
         <v>99.917000000000002</v>
       </c>
+      <c r="AA11" s="3">
+        <v>0.56424200000000002</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0.72212799999999999</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0.60659200000000002</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.52035600000000004</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0.62351299999999998</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="2"/>
+        <v>0.60736620000000008</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.64238300000000004</v>
+        <v>6.0499999999999998E-3</v>
       </c>
       <c r="B12">
-        <v>0.629247</v>
+        <v>1.1199000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.66824799999999995</v>
+        <v>1.3976000000000001E-2</v>
       </c>
       <c r="D12">
-        <v>0.60400799999999999</v>
+        <v>2.7442000000000001E-2</v>
       </c>
       <c r="E12">
-        <v>0.51402300000000001</v>
-      </c>
-      <c r="F12">
+        <v>1.7297E-2</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>0.61158179999999995</v>
+        <v>1.5192800000000001E-2</v>
       </c>
       <c r="H12">
         <v>99.6</v>
@@ -5188,26 +8478,45 @@
         <f t="shared" si="1"/>
         <v>9.1553999999999993E-3</v>
       </c>
+      <c r="AA12">
+        <v>0.64238300000000004</v>
+      </c>
+      <c r="AB12">
+        <v>0.629247</v>
+      </c>
+      <c r="AC12">
+        <v>0.66824799999999995</v>
+      </c>
+      <c r="AD12">
+        <v>0.60400799999999999</v>
+      </c>
+      <c r="AE12">
+        <v>0.51402300000000001</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="2"/>
+        <v>0.61158179999999995</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.51393200000000006</v>
+        <v>9.2270000000000008E-3</v>
       </c>
       <c r="B13">
-        <v>0.61728099999999997</v>
+        <v>2.8903000000000002E-2</v>
       </c>
       <c r="C13">
-        <v>0.495612</v>
+        <v>5.0889999999999998E-3</v>
       </c>
       <c r="D13">
-        <v>0.39105600000000001</v>
+        <v>3.8730000000000001E-3</v>
       </c>
       <c r="E13">
-        <v>0.48555700000000002</v>
-      </c>
-      <c r="F13">
+        <v>5.9750000000000003E-3</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>0.50068760000000001</v>
+        <v>1.0613400000000002E-2</v>
       </c>
       <c r="N13">
         <v>7.2950000000000003E-3</v>
@@ -5228,26 +8537,45 @@
         <f t="shared" si="1"/>
         <v>8.4422000000000004E-3</v>
       </c>
+      <c r="AA13">
+        <v>0.51393200000000006</v>
+      </c>
+      <c r="AB13">
+        <v>0.61728099999999997</v>
+      </c>
+      <c r="AC13">
+        <v>0.495612</v>
+      </c>
+      <c r="AD13">
+        <v>0.39105600000000001</v>
+      </c>
+      <c r="AE13">
+        <v>0.48555700000000002</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="2"/>
+        <v>0.50068760000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0.50446500000000005</v>
+        <v>3.9579999999999997E-3</v>
       </c>
       <c r="B14">
-        <v>0.47948400000000002</v>
+        <v>4.5385000000000002E-2</v>
       </c>
       <c r="C14">
-        <v>0.54180600000000001</v>
+        <v>8.6479999999999994E-3</v>
       </c>
       <c r="D14">
-        <v>0.57583799999999996</v>
+        <v>3.7075999999999998E-2</v>
       </c>
       <c r="E14">
-        <v>0.63988999999999996</v>
-      </c>
-      <c r="F14">
+        <v>2.0041E-2</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>0.54829660000000002</v>
+        <v>2.30216E-2</v>
       </c>
       <c r="N14">
         <v>7.8919999999999997E-3</v>
@@ -5268,26 +8596,45 @@
         <f t="shared" si="1"/>
         <v>7.2943999999999995E-3</v>
       </c>
+      <c r="AA14">
+        <v>0.50446500000000005</v>
+      </c>
+      <c r="AB14">
+        <v>0.47948400000000002</v>
+      </c>
+      <c r="AC14">
+        <v>0.54180600000000001</v>
+      </c>
+      <c r="AD14">
+        <v>0.57583799999999996</v>
+      </c>
+      <c r="AE14">
+        <v>0.63988999999999996</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="2"/>
+        <v>0.54829660000000002</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>0.54889900000000003</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.63939800000000002</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.69077299999999997</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.53201299999999996</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.46807100000000001</v>
-      </c>
-      <c r="F15">
+    <row r="15" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3.2859999999999999E-3</v>
+      </c>
+      <c r="B15">
+        <v>2.0462000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.1075E-2</v>
+      </c>
+      <c r="D15">
+        <v>4.8560000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>3.1110000000000001E-3</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>0.57583080000000009</v>
+        <v>8.5579999999999996E-3</v>
       </c>
       <c r="N15">
         <v>6.8120000000000003E-3</v>
@@ -5308,26 +8655,45 @@
         <f t="shared" si="1"/>
         <v>8.0333999999999996E-3</v>
       </c>
+      <c r="AA15" s="2">
+        <v>0.54889900000000003</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0.63939800000000002</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0.69077299999999997</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0.53201299999999996</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0.46807100000000001</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="2"/>
+        <v>0.57583080000000009</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.55419399999999996</v>
-      </c>
-      <c r="B16">
-        <v>0.46204099999999998</v>
-      </c>
-      <c r="C16">
-        <v>0.50370199999999998</v>
-      </c>
-      <c r="D16">
-        <v>0.51966199999999996</v>
-      </c>
-      <c r="E16">
-        <v>0.39232600000000001</v>
-      </c>
-      <c r="F16">
+    <row r="16" spans="1:32" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>3.6329999999999999E-3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.2367999999999999E-2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.2478E-2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.1049999999999994E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5.6550000000000003E-3</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>0.48638500000000001</v>
+        <v>1.04478E-2</v>
       </c>
       <c r="H16" s="3">
         <v>100</v>
@@ -5378,26 +8744,45 @@
       <c r="Y16" s="3">
         <v>100</v>
       </c>
+      <c r="AA16">
+        <v>0.55419399999999996</v>
+      </c>
+      <c r="AB16">
+        <v>0.46204099999999998</v>
+      </c>
+      <c r="AC16">
+        <v>0.50370199999999998</v>
+      </c>
+      <c r="AD16">
+        <v>0.51966199999999996</v>
+      </c>
+      <c r="AE16">
+        <v>0.39232600000000001</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="2"/>
+        <v>0.48638500000000001</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.60552600000000001</v>
-      </c>
-      <c r="B17">
-        <v>0.42124200000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.38962200000000002</v>
-      </c>
-      <c r="D17">
-        <v>0.52261000000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.33610099999999998</v>
-      </c>
-      <c r="F17">
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6.862E-3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.5049999999999998E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.1533E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.3017000000000004E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6.3949999999999996E-3</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>0.45502020000000004</v>
+        <v>2.0062400000000001E-2</v>
       </c>
       <c r="H17" s="1">
         <v>99.9</v>
@@ -5433,26 +8818,45 @@
         <f t="shared" si="1"/>
         <v>6.2727999999999994E-3</v>
       </c>
+      <c r="AA17">
+        <v>0.60552600000000001</v>
+      </c>
+      <c r="AB17">
+        <v>0.42124200000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0.38962200000000002</v>
+      </c>
+      <c r="AD17">
+        <v>0.52261000000000002</v>
+      </c>
+      <c r="AE17">
+        <v>0.33610099999999998</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="2"/>
+        <v>0.45502020000000004</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.53777600000000003</v>
-      </c>
-      <c r="B18">
-        <v>0.51656500000000005</v>
-      </c>
-      <c r="C18">
-        <v>0.35001599999999999</v>
-      </c>
-      <c r="D18">
-        <v>0.462675</v>
-      </c>
-      <c r="E18">
-        <v>0.43347999999999998</v>
-      </c>
-      <c r="F18">
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>3.7269999999999998E-3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.4463E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.8227999999999997E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>9.0740000000000005E-3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.1979999999999999E-3</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>0.46010239999999997</v>
+        <v>1.9737999999999999E-2</v>
       </c>
       <c r="N18" s="1">
         <v>5.1079999999999997E-3</v>
@@ -5473,26 +8877,45 @@
         <f t="shared" si="1"/>
         <v>5.4066000000000001E-3</v>
       </c>
+      <c r="AA18">
+        <v>0.53777600000000003</v>
+      </c>
+      <c r="AB18">
+        <v>0.51656500000000005</v>
+      </c>
+      <c r="AC18">
+        <v>0.35001599999999999</v>
+      </c>
+      <c r="AD18">
+        <v>0.462675</v>
+      </c>
+      <c r="AE18">
+        <v>0.43347999999999998</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="2"/>
+        <v>0.46010239999999997</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.49720700000000001</v>
-      </c>
-      <c r="B19">
-        <v>0.52321300000000004</v>
-      </c>
-      <c r="C19">
-        <v>0.45175199999999999</v>
-      </c>
-      <c r="D19">
-        <v>0.53351499999999996</v>
-      </c>
-      <c r="E19">
-        <v>0.48861599999999999</v>
-      </c>
-      <c r="F19">
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>7.326E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>4.5100000000000001E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.8787999999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.5249999999999999E-3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8.2869999999999992E-3</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>0.49886059999999999</v>
+        <v>8.4872000000000003E-3</v>
       </c>
       <c r="N19" s="1">
         <v>4.7920000000000003E-3</v>
@@ -5513,26 +8936,45 @@
         <f t="shared" si="1"/>
         <v>5.1653999999999997E-3</v>
       </c>
+      <c r="AA19">
+        <v>0.49720700000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.52321300000000004</v>
+      </c>
+      <c r="AC19">
+        <v>0.45175199999999999</v>
+      </c>
+      <c r="AD19">
+        <v>0.53351499999999996</v>
+      </c>
+      <c r="AE19">
+        <v>0.48861599999999999</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="2"/>
+        <v>0.49886059999999999</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>0.550203</v>
-      </c>
-      <c r="B20">
-        <v>0.64113600000000004</v>
-      </c>
-      <c r="C20">
-        <v>0.42796200000000001</v>
-      </c>
-      <c r="D20">
-        <v>0.581654</v>
-      </c>
-      <c r="E20">
-        <v>0.32886300000000002</v>
-      </c>
-      <c r="F20">
+    <row r="20" spans="1:32" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>2.9780000000000002E-3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3.2009999999999999E-3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.6041000000000002E-2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>9.9860000000000001E-3</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1.7586999999999998E-2</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>0.50596360000000007</v>
+        <v>1.19586E-2</v>
       </c>
       <c r="N20" s="2">
         <v>1.4449999999999999E-2</v>
@@ -5553,26 +8995,45 @@
         <f t="shared" si="1"/>
         <v>6.6447999999999993E-3</v>
       </c>
+      <c r="AA20">
+        <v>0.550203</v>
+      </c>
+      <c r="AB20">
+        <v>0.64113600000000004</v>
+      </c>
+      <c r="AC20">
+        <v>0.42796200000000001</v>
+      </c>
+      <c r="AD20">
+        <v>0.581654</v>
+      </c>
+      <c r="AE20">
+        <v>0.32886300000000002</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="2"/>
+        <v>0.50596360000000007</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>0.46900500000000001</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.43541800000000003</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.29469499999999998</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.36839699999999997</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.34460400000000002</v>
-      </c>
-      <c r="F21">
+    <row r="21" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2.398E-3</v>
+      </c>
+      <c r="B21">
+        <v>2.9989999999999999E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.5202E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.163E-3</v>
+      </c>
+      <c r="E21">
+        <v>3.7309999999999999E-3</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
-        <v>0.38242379999999992</v>
+        <v>5.2985999999999988E-3</v>
       </c>
       <c r="H21">
         <v>100</v>
@@ -5623,26 +9084,45 @@
       <c r="Y21">
         <v>99.75</v>
       </c>
+      <c r="AA21" s="3">
+        <v>0.46900500000000001</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.43541800000000003</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0.29469499999999998</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.36839699999999997</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0.34460400000000002</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="2"/>
+        <v>0.38242379999999992</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.47808600000000001</v>
+        <v>1.4139999999999999E-3</v>
       </c>
       <c r="B22">
-        <v>0.41656300000000002</v>
+        <v>1.3475000000000001E-2</v>
       </c>
       <c r="C22">
-        <v>0.403229</v>
+        <v>1.0517E-2</v>
       </c>
       <c r="D22">
-        <v>0.38714199999999999</v>
+        <v>8.9668999999999999E-2</v>
       </c>
       <c r="E22">
-        <v>0.304782</v>
-      </c>
-      <c r="F22">
+        <v>3.5829999999999998E-3</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
-        <v>0.39796039999999999</v>
+        <v>2.3731599999999999E-2</v>
       </c>
       <c r="H22">
         <v>99.9</v>
@@ -5678,26 +9158,45 @@
         <f t="shared" si="1"/>
         <v>4.1653999999999997E-3</v>
       </c>
+      <c r="AA22">
+        <v>0.47808600000000001</v>
+      </c>
+      <c r="AB22">
+        <v>0.41656300000000002</v>
+      </c>
+      <c r="AC22">
+        <v>0.403229</v>
+      </c>
+      <c r="AD22">
+        <v>0.38714199999999999</v>
+      </c>
+      <c r="AE22">
+        <v>0.304782</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="2"/>
+        <v>0.39796039999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>0.44532300000000002</v>
+        <v>3.6189999999999998E-3</v>
       </c>
       <c r="B23">
-        <v>0.42959799999999998</v>
+        <v>2.9169999999999999E-3</v>
       </c>
       <c r="C23">
-        <v>0.27931499999999998</v>
+        <v>2.163E-3</v>
       </c>
       <c r="D23">
-        <v>0.38827299999999998</v>
+        <v>4.8580000000000003E-3</v>
       </c>
       <c r="E23">
-        <v>0.362759</v>
-      </c>
-      <c r="F23">
+        <v>1.7960000000000001E-3</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
-        <v>0.38105359999999999</v>
+        <v>3.0706000000000002E-3</v>
       </c>
       <c r="N23">
         <v>3.6830000000000001E-3</v>
@@ -5718,26 +9217,45 @@
         <f t="shared" si="1"/>
         <v>4.1949999999999999E-3</v>
       </c>
+      <c r="AA23">
+        <v>0.44532300000000002</v>
+      </c>
+      <c r="AB23">
+        <v>0.42959799999999998</v>
+      </c>
+      <c r="AC23">
+        <v>0.27931499999999998</v>
+      </c>
+      <c r="AD23">
+        <v>0.38827299999999998</v>
+      </c>
+      <c r="AE23">
+        <v>0.362759</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="2"/>
+        <v>0.38105359999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.425674</v>
+        <v>2.3670000000000002E-3</v>
       </c>
       <c r="B24">
-        <v>0.32409100000000002</v>
+        <v>6.8019999999999999E-3</v>
       </c>
       <c r="C24">
-        <v>0.31929999999999997</v>
+        <v>2.9120000000000001E-3</v>
       </c>
       <c r="D24">
-        <v>0.52278999999999998</v>
+        <v>5.3169999999999997E-3</v>
       </c>
       <c r="E24">
-        <v>0.31520300000000001</v>
-      </c>
-      <c r="F24">
+        <v>4.9049999999999996E-3</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
-        <v>0.38141159999999996</v>
+        <v>4.4606000000000003E-3</v>
       </c>
       <c r="N24">
         <v>3.6830000000000001E-3</v>
@@ -5758,26 +9276,45 @@
         <f t="shared" si="1"/>
         <v>4.0343999999999996E-3</v>
       </c>
+      <c r="AA24">
+        <v>0.425674</v>
+      </c>
+      <c r="AB24">
+        <v>0.32409100000000002</v>
+      </c>
+      <c r="AC24">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="AD24">
+        <v>0.52278999999999998</v>
+      </c>
+      <c r="AE24">
+        <v>0.31520300000000001</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="2"/>
+        <v>0.38141159999999996</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>0.493168</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0.44800699999999999</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.27152300000000001</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.45493299999999998</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.34810400000000002</v>
-      </c>
-      <c r="F25">
+    <row r="25" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>8.6657999999999999E-2</v>
+      </c>
+      <c r="B25">
+        <v>4.8469999999999997E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.235E-3</v>
+      </c>
+      <c r="D25">
+        <v>1.3516E-2</v>
+      </c>
+      <c r="E25">
+        <v>3.3319999999999999E-3</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.40314700000000003</v>
+        <v>2.2117600000000001E-2</v>
       </c>
       <c r="N25">
         <v>3.3180000000000002E-3</v>
@@ -5798,26 +9335,45 @@
         <f t="shared" si="1"/>
         <v>3.6444000000000003E-3</v>
       </c>
+      <c r="AA25" s="2">
+        <v>0.493168</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>0.44800699999999999</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0.27152300000000001</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0.45493299999999998</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>0.34810400000000002</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="2"/>
+        <v>0.40314700000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0.45903100000000002</v>
-      </c>
-      <c r="B26">
-        <v>0.43953900000000001</v>
-      </c>
-      <c r="C26">
-        <v>0.30276399999999998</v>
-      </c>
-      <c r="D26">
-        <v>0.50516300000000003</v>
-      </c>
-      <c r="E26">
-        <v>0.28501799999999999</v>
-      </c>
-      <c r="F26">
+    <row r="26" spans="1:32" s="3" customFormat="1" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>5.1250000000000002E-3</v>
+      </c>
+      <c r="B26" s="3">
+        <v>8.4779999999999994E-3</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.1289999999999998E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2.101E-3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.9490000000000003E-3</v>
+      </c>
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
-        <v>0.39830300000000002</v>
+        <v>4.3563999999999999E-3</v>
       </c>
       <c r="H26" s="3">
         <v>100</v>
@@ -5868,26 +9424,45 @@
       <c r="Y26" s="3">
         <v>99.917000000000002</v>
       </c>
+      <c r="AA26">
+        <v>0.45903100000000002</v>
+      </c>
+      <c r="AB26">
+        <v>0.43953900000000001</v>
+      </c>
+      <c r="AC26">
+        <v>0.30276399999999998</v>
+      </c>
+      <c r="AD26">
+        <v>0.50516300000000003</v>
+      </c>
+      <c r="AE26">
+        <v>0.28501799999999999</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="2"/>
+        <v>0.39830300000000002</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.41938300000000001</v>
-      </c>
-      <c r="B27">
-        <v>0.26998899999999998</v>
-      </c>
-      <c r="C27">
-        <v>0.27456399999999997</v>
-      </c>
-      <c r="D27">
-        <v>0.59592000000000001</v>
-      </c>
-      <c r="E27">
-        <v>0.27900199999999997</v>
-      </c>
-      <c r="F27">
+    <row r="27" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>5.5009999999999998E-3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.545E-3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.4729999999999999E-3</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.4469999999999999E-3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.4269999999999999E-3</v>
+      </c>
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
-        <v>0.36777159999999998</v>
+        <v>2.6786000000000002E-3</v>
       </c>
       <c r="H27" s="1">
         <v>100</v>
@@ -5923,26 +9498,45 @@
         <f t="shared" si="1"/>
         <v>3.3480000000000003E-3</v>
       </c>
+      <c r="AA27">
+        <v>0.41938300000000001</v>
+      </c>
+      <c r="AB27">
+        <v>0.26998899999999998</v>
+      </c>
+      <c r="AC27">
+        <v>0.27456399999999997</v>
+      </c>
+      <c r="AD27">
+        <v>0.59592000000000001</v>
+      </c>
+      <c r="AE27">
+        <v>0.27900199999999997</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="2"/>
+        <v>0.36777159999999998</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0.35259400000000002</v>
-      </c>
-      <c r="B28">
-        <v>0.21179700000000001</v>
-      </c>
-      <c r="C28">
-        <v>0.38407200000000002</v>
-      </c>
-      <c r="D28">
-        <v>0.41732900000000001</v>
-      </c>
-      <c r="E28">
-        <v>0.27998899999999999</v>
-      </c>
-      <c r="F28">
+    <row r="28" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>5.0850000000000001E-3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7.7520000000000002E-3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.214E-3</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.0240000000000002E-3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>8.3230000000000005E-3</v>
+      </c>
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
-        <v>0.32915620000000001</v>
+        <v>4.8796000000000004E-3</v>
       </c>
       <c r="N28" s="1">
         <v>2.875E-3</v>
@@ -5963,26 +9557,45 @@
         <f t="shared" si="1"/>
         <v>9.504799999999999E-3</v>
       </c>
+      <c r="AA28">
+        <v>0.35259400000000002</v>
+      </c>
+      <c r="AB28">
+        <v>0.21179700000000001</v>
+      </c>
+      <c r="AC28">
+        <v>0.38407200000000002</v>
+      </c>
+      <c r="AD28">
+        <v>0.41732900000000001</v>
+      </c>
+      <c r="AE28">
+        <v>0.27998899999999999</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="2"/>
+        <v>0.32915620000000001</v>
+      </c>
     </row>
-    <row r="29" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.39687099999999997</v>
-      </c>
-      <c r="B29">
-        <v>0.26873900000000001</v>
-      </c>
-      <c r="C29">
-        <v>0.397816</v>
-      </c>
-      <c r="D29">
-        <v>0.40756599999999998</v>
-      </c>
-      <c r="E29">
-        <v>0.34765099999999999</v>
-      </c>
-      <c r="F29">
+    <row r="29" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.5309999999999999E-3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.64E-3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.848E-3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2.9580000000000001E-3</v>
+      </c>
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
-        <v>0.36372859999999996</v>
+        <v>2.5194000000000002E-3</v>
       </c>
       <c r="N29" s="1">
         <v>2.9989999999999999E-3</v>
@@ -6003,26 +9616,45 @@
         <f t="shared" si="1"/>
         <v>4.1333999999999997E-3</v>
       </c>
+      <c r="AA29">
+        <v>0.39687099999999997</v>
+      </c>
+      <c r="AB29">
+        <v>0.26873900000000001</v>
+      </c>
+      <c r="AC29">
+        <v>0.397816</v>
+      </c>
+      <c r="AD29">
+        <v>0.40756599999999998</v>
+      </c>
+      <c r="AE29">
+        <v>0.34765099999999999</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="2"/>
+        <v>0.36372859999999996</v>
+      </c>
     </row>
-    <row r="30" spans="1:25" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>0.46983999999999998</v>
-      </c>
-      <c r="B30">
-        <v>0.25598599999999999</v>
-      </c>
-      <c r="C30">
-        <v>0.34488200000000002</v>
-      </c>
-      <c r="D30">
-        <v>0.44834099999999999</v>
-      </c>
-      <c r="E30">
-        <v>0.28371000000000002</v>
-      </c>
-      <c r="F30">
+    <row r="30" spans="1:32" s="2" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>1.5460000000000001E-3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.835E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6.0800000000000003E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4.8989999999999997E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5.653E-3</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
-        <v>0.36055179999999998</v>
+        <v>4.0026000000000003E-3</v>
       </c>
       <c r="N30" s="2">
         <v>2.6120000000000002E-3</v>
@@ -6043,18 +9675,35 @@
         <f t="shared" si="1"/>
         <v>2.9627999999999998E-3</v>
       </c>
+      <c r="AA30">
+        <v>0.46983999999999998</v>
+      </c>
+      <c r="AB30">
+        <v>0.25598599999999999</v>
+      </c>
+      <c r="AC30">
+        <v>0.34488200000000002</v>
+      </c>
+      <c r="AD30">
+        <v>0.44834099999999999</v>
+      </c>
+      <c r="AE30">
+        <v>0.28371000000000002</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="2"/>
+        <v>0.36055179999999998</v>
+      </c>
     </row>
-    <row r="31" spans="1:25" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+    <row r="31" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
       <c r="N31" t="s">
         <v>0</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6066,18 +9715,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A6A0FB-BEAC-4015-8801-230DE0AC53DD}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>99.75</v>
       </c>
@@ -6097,27 +9746,46 @@
         <f>AVERAGE(A1:E1)</f>
         <v>99.49799999999999</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="5">
+        <v>98.082999999999998</v>
+      </c>
+      <c r="I1" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="J1" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="K1" s="6">
+        <v>96.667000000000002</v>
+      </c>
+      <c r="L1" s="6">
+        <v>97.332999999999998</v>
+      </c>
+      <c r="M1" s="1">
+        <f>AVERAGE(H1:L1)</f>
+        <v>97.016599999999997</v>
+      </c>
+      <c r="O1">
         <v>60.8</v>
       </c>
-      <c r="I1">
+      <c r="P1">
         <v>59.1</v>
       </c>
-      <c r="J1">
+      <c r="Q1">
         <v>58.1</v>
       </c>
-      <c r="K1">
+      <c r="R1">
         <v>59.3</v>
       </c>
-      <c r="L1">
+      <c r="S1">
         <v>63.2</v>
       </c>
-      <c r="M1">
-        <f>AVERAGE(H1:L1)</f>
+      <c r="T1">
+        <f>AVERAGE(O1:S1)</f>
         <v>60.1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>99.917000000000002</v>
       </c>
@@ -6137,27 +9805,46 @@
         <f t="shared" ref="F2:F6" si="0">AVERAGE(A2:E2)</f>
         <v>99.884200000000007</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="5">
+        <v>99.25</v>
+      </c>
+      <c r="I2" s="6">
+        <v>98.917000000000002</v>
+      </c>
+      <c r="J2" s="6">
+        <v>99.25</v>
+      </c>
+      <c r="K2" s="6">
+        <v>98.5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>99.75</v>
+      </c>
+      <c r="M2" s="1">
+        <f t="shared" ref="M2:M6" si="1">AVERAGE(H2:L2)</f>
+        <v>99.133400000000009</v>
+      </c>
+      <c r="O2">
         <v>63.9</v>
       </c>
-      <c r="I2">
+      <c r="P2">
         <v>70.099999999999994</v>
       </c>
-      <c r="J2">
+      <c r="Q2">
         <v>69.2</v>
       </c>
-      <c r="K2">
+      <c r="R2">
         <v>67.7</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>69.400000000000006</v>
       </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M6" si="1">AVERAGE(H2:L2)</f>
+      <c r="T2">
+        <f t="shared" ref="T2:T6" si="2">AVERAGE(O2:S2)</f>
         <v>68.059999999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>99.917000000000002</v>
       </c>
@@ -6177,27 +9864,46 @@
         <f t="shared" si="0"/>
         <v>99.916800000000009</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>99</v>
+      </c>
+      <c r="J3" s="5">
+        <v>99.5</v>
+      </c>
+      <c r="K3" s="5">
+        <v>99.25</v>
+      </c>
+      <c r="L3" s="7">
+        <v>99.5</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" si="1"/>
+        <v>99.35</v>
+      </c>
+      <c r="O3">
         <v>71.599999999999994</v>
       </c>
-      <c r="I3">
+      <c r="P3">
         <v>72.5</v>
       </c>
-      <c r="J3">
+      <c r="Q3">
         <v>75.2</v>
       </c>
-      <c r="K3">
+      <c r="R3">
         <v>69.5</v>
       </c>
-      <c r="L3">
+      <c r="S3">
         <v>74.7</v>
       </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
+      <c r="T3">
+        <f t="shared" si="2"/>
         <v>72.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -6217,27 +9923,46 @@
         <f t="shared" si="0"/>
         <v>99.965999999999994</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
+        <v>99.75</v>
+      </c>
+      <c r="I4" s="6">
+        <v>99.417000000000002</v>
+      </c>
+      <c r="J4" s="6">
+        <v>99.75</v>
+      </c>
+      <c r="K4" s="6">
+        <v>99.25</v>
+      </c>
+      <c r="L4" s="8">
+        <v>99.75</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="1"/>
+        <v>99.583400000000012</v>
+      </c>
+      <c r="O4">
         <v>75.400000000000006</v>
       </c>
-      <c r="I4">
+      <c r="P4">
         <v>77.7</v>
       </c>
-      <c r="J4">
+      <c r="Q4">
         <v>79.7</v>
       </c>
-      <c r="K4">
+      <c r="R4">
         <v>70.2</v>
       </c>
-      <c r="L4">
+      <c r="S4">
         <v>77.8</v>
       </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
+      <c r="T4">
+        <f t="shared" si="2"/>
         <v>76.16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -6257,27 +9982,46 @@
         <f t="shared" si="0"/>
         <v>99.866</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
+        <v>99.75</v>
+      </c>
+      <c r="I5" s="5">
+        <v>99.332999999999998</v>
+      </c>
+      <c r="J5" s="5">
+        <v>99.917000000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>99.25</v>
+      </c>
+      <c r="L5" s="7">
+        <v>99.917000000000002</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="1"/>
+        <v>99.633400000000009</v>
+      </c>
+      <c r="O5">
         <v>77.8</v>
       </c>
-      <c r="I5">
+      <c r="P5">
         <v>81.900000000000006</v>
       </c>
-      <c r="J5">
+      <c r="Q5">
         <v>83.1</v>
       </c>
-      <c r="K5">
+      <c r="R5">
         <v>70</v>
       </c>
-      <c r="L5">
+      <c r="S5">
         <v>82.5</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
+      <c r="T5">
+        <f t="shared" si="2"/>
         <v>79.059999999999988</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -6297,135 +10041,60 @@
         <f t="shared" si="0"/>
         <v>99.933400000000006</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
+        <v>99.832999999999998</v>
+      </c>
+      <c r="I6" s="6">
+        <v>99.417000000000002</v>
+      </c>
+      <c r="J6" s="6">
+        <v>99.832999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>99.332999999999998</v>
+      </c>
+      <c r="L6" s="8">
+        <v>100</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>99.683199999999985</v>
+      </c>
+      <c r="O6">
         <v>80.400000000000006</v>
       </c>
-      <c r="I6">
+      <c r="P6">
         <v>84.4</v>
       </c>
-      <c r="J6">
+      <c r="Q6">
         <v>83.2</v>
       </c>
-      <c r="K6">
+      <c r="R6">
         <v>73.7</v>
       </c>
-      <c r="L6">
+      <c r="S6">
         <v>83.4</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
+      <c r="T6">
+        <f t="shared" si="2"/>
         <v>81.02000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="B13" s="1">
-        <v>69.7</v>
-      </c>
-      <c r="C13" s="4">
-        <v>71.3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>84.6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>98</v>
-      </c>
-      <c r="B14" s="1">
-        <v>97.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>93.9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>99.1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>95.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>99.9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>99.9</v>
-      </c>
-      <c r="D15" s="1">
-        <v>99.8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>99.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>100</v>
-      </c>
-      <c r="B16" s="1">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>100</v>
-      </c>
-      <c r="B17" s="1">
-        <v>100</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>100</v>
-      </c>
-      <c r="B18" s="1">
-        <v>100</v>
-      </c>
-      <c r="C18" s="1">
-        <v>100</v>
-      </c>
-      <c r="D18" s="1">
-        <v>100</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
